--- a/PerfectSquaresBenchmark.xlsx
+++ b/PerfectSquaresBenchmark.xlsx
@@ -53210,10 +53210,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D301"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A292" sqref="A292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57761,7 +57761,7 @@
         <v>32.803333333333335</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -57772,6 +57772,12 @@
       <c r="C305">
         <f>_xlfn.STDEV.S(C2:C301)</f>
         <v>30.737609824904229</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <f>MAX(D2:D301)</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
